--- a/Assets/Resources/Boss1-2.xlsx
+++ b/Assets/Resources/Boss1-2.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Project-X\Assets\Resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39E7335C-19F1-4698-950B-16261BA656B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61307A37-0DCA-4575-8C56-1E59F82875A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="13">
   <si>
     <t>TextNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,26 +66,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10</t>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -128,7 +130,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -432,26 +434,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA16AC84-7B93-404E-B824-829FA121BC6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,50 +461,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -510,201 +500,189 @@
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>2</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="G8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Boss1-2.xlsx
+++ b/Assets/Resources/Boss1-2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Project-X\Assets\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F817B5F4-C140-43E8-8065-B02DE293C50A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="12">
   <si>
     <t>TextNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,29 +71,25 @@
   </si>
   <si>
     <t>text5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -130,7 +126,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -434,26 +430,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -481,7 +477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -501,7 +497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -521,7 +517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -541,7 +537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -573,7 +569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -605,7 +601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -637,7 +633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -669,7 +665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -677,12 +673,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
